--- a/LC Study Guide.xlsx
+++ b/LC Study Guide.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -37,7 +37,10 @@
     <t>Hash map; iterate over array once</t>
   </si>
   <si>
-    <t/>
+    <t>Contains Duplicate</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/contains-duplicate/description/</t>
   </si>
 </sst>
 </file>
@@ -101,9 +104,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -118,13 +121,10 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -438,10 +438,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="3.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="38.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="33.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="3.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="38.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="33.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -479,232 +479,234 @@
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3">
         <f>rows($A$2:A4)</f>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3">
         <f>rows($A$2:A5)</f>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3">
         <f>rows($A$2:A6)</f>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="3">
         <f>rows($A$2:A7)</f>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="3">
         <f>rows($A$2:A8)</f>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="3">
         <f>rows($A$2:A9)</f>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="3">
         <f>rows($A$2:A10)</f>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="3">
         <f>rows($A$2:A11)</f>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="3">
         <f>rows($A$2:A12)</f>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="3">
         <f>rows($A$2:A13)</f>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="3">
         <f>rows($A$2:A14)</f>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="3">
         <f>rows($A$2:A15)</f>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="3">
         <f>rows($A$2:A16)</f>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="3">
         <f>rows($A$2:A17)</f>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="3">
         <f>rows($A$2:A18)</f>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="3">
         <f>rows($A$2:A19)</f>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="3">
         <f>rows($A$2:A20)</f>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="3">
         <f>rows($A$2:A21)</f>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="3">
         <f>rows($A$2:A22)</f>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="3">
         <f>rows($A$2:A23)</f>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="3">
         <f>rows($A$2:A24)</f>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="3">
         <f>rows($A$2:A25)</f>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="3">
         <f>rows($A$2:A26)</f>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="3">
         <f>rows($A$2:A27)</f>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="3">
         <f>rows($A$2:A28)</f>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="3">
         <f>rows($A$2:A29)</f>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="3">
         <f>rows($A$2:A30)</f>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="3">
         <f>rows($A$2:A31)</f>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
